--- a/switch2machinelearning/lagou2/绘图.xlsx
+++ b/switch2machinelearning/lagou2/绘图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,12 +129,384 @@
     <t>一年购买面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种语言出现的频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架出现频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caffe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyTorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应届毕业生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业领域分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁金服集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gridsum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国双</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盾科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云脑科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好大夫在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中腾信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶泰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋钱罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永洪科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Udesk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>－企业级智能客服平台</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁香园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追一科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华院数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叽里呱啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四范式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aibee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Trusfort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芯盾时代</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创新工场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工程院</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普林科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FitTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>睿健时代</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +520,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,8 +555,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -204,7 +596,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1122,6 +1513,13 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1145,9 +1543,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1341,7 +1737,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,6 +2117,13 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1745,9 +2147,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2137,11 +2537,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="449548296"/>
-        <c:axId val="449553784"/>
+        <c:axId val="337033720"/>
+        <c:axId val="337035104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449548296"/>
+        <c:axId val="337033720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,7 +2584,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449553784"/>
+        <c:crossAx val="337035104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2192,7 +2592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449553784"/>
+        <c:axId val="337035104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="13"/>
@@ -2244,7 +2644,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449548296"/>
+        <c:crossAx val="337033720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,11 +2994,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="449547904"/>
-        <c:axId val="449551432"/>
+        <c:axId val="337579048"/>
+        <c:axId val="337582168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449547904"/>
+        <c:axId val="337579048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +3041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449551432"/>
+        <c:crossAx val="337582168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2649,7 +3049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449551432"/>
+        <c:axId val="337582168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.8"/>
@@ -2701,7 +3101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449547904"/>
+        <c:crossAx val="337579048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2749,6 +3149,2841 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>各种语言出现的频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$81:$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C语言</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R语言</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Matlab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$81:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.75033921302578022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4599728629579376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29715061058344638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14518317503392131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12890094979647218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1913161465400277E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="378411528"/>
+        <c:axId val="378414664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="378411528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378414664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378414664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378411528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>各种框架出现的频率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TensorFlow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>框架出现频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.35142469470827681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Caffe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>框架出现频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2130257801899593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PyTorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>框架出现频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.12483039348710991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MXNet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>框架出现频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.10312075983717775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Theano</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>框架出现频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.8697421981004073E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>框架出现频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4925373134328358E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dl4j</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>框架出现频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3568521031207597E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="383094032"/>
+        <c:axId val="383092464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383094032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="383092464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383092464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383094032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>不同经验要求占比</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不限</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19538670284938942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>应届毕业生</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.6485753052917235E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1年以下</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.4274084124830389E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1-3年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28086838534599728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3-5年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.37449118046132973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5-10年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.4626865671641784E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10年以上</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7137042062415195E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="383231584"/>
+        <c:axId val="383226880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383231584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="383226880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383226880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383231584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>工业领域分布</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$143:$A$152</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>移动互联网</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>企业服务</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>教育</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>电子商务</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>数据服务</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>信息安全</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>生活服务</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>硬件</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>医疗健康</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$143:$B$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>招聘规模排行榜</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$160:$A$195</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>美团点评</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>百度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>蚂蚁金服集团</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>新浪微博</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>腾讯</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>数美</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>滴滴出行</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GFT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>京东集团</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gridsum 国双</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>小米</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>同盾科技</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>云脑科技</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>好大夫在线</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>中腾信</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>顺丰科技有限公司</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>晶泰科技</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>洋钱罐</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>永洪科技</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Udesk－企业级智能客服平台</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>丁香园</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>追一科技</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>七牛云</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>华院数据</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>叽里呱啦</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>一起科技</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>人人车</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>第四范式</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Aibee</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>快手</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>一点资讯</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Trusfort芯盾时代</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>创新工场AI工程院</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>普林科技</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>FitTime睿健时代</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$160:$B$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="383228056"/>
+        <c:axId val="383229624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383228056"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383229624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383229624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383228056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2946,6 +6181,200 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
@@ -4493,6 +7922,2544 @@
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5118,6 +11085,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5408,10 +11525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:C67"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5850,6 +11967,679 @@
       </c>
       <c r="D67">
         <v>16.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="1">
+        <f>C81/737</f>
+        <v>0.75033921302578022</v>
+      </c>
+      <c r="C81">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" ref="B82:B87" si="2">C82/737</f>
+        <v>0.4599728629579376</v>
+      </c>
+      <c r="C82">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C83">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29715061058344638</v>
+      </c>
+      <c r="C84">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14518317503392131</v>
+      </c>
+      <c r="C85">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12890094979647218</v>
+      </c>
+      <c r="C86">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1913161465400277E-2</v>
+      </c>
+      <c r="C87">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105">
+        <f>C105/737</f>
+        <v>0.35142469470827681</v>
+      </c>
+      <c r="C105">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106:B111" si="3">C106/737</f>
+        <v>0.2130257801899593</v>
+      </c>
+      <c r="C106">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>0.12483039348710991</v>
+      </c>
+      <c r="C107">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>0.10312075983717775</v>
+      </c>
+      <c r="C108">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>7.8697421981004073E-2</v>
+      </c>
+      <c r="C109">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>1.3568521031207597E-3</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C115">
+        <f>SUM(C105:C111)</f>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C116">
+        <f>654/737</f>
+        <v>0.88738127544097689</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125">
+        <f>C125/737</f>
+        <v>0.19538670284938942</v>
+      </c>
+      <c r="C125">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ref="B126:B131" si="4">C126/737</f>
+        <v>6.6485753052917235E-2</v>
+      </c>
+      <c r="C126">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="4"/>
+        <v>5.4274084124830389E-3</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="4"/>
+        <v>0.28086838534599728</v>
+      </c>
+      <c r="C128">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="4"/>
+        <v>0.37449118046132973</v>
+      </c>
+      <c r="C129">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="4"/>
+        <v>7.4626865671641784E-2</v>
+      </c>
+      <c r="C130">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="4"/>
+        <v>2.7137042062415195E-3</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>61</v>
+      </c>
+      <c r="B148">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>62</v>
+      </c>
+      <c r="B149">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B161">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B162">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B163">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>360</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
